--- a/src/main/resources/static/templates/users.xlsx
+++ b/src/main/resources/static/templates/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maziy\IdeaProjects\IDMAN\src\main\resources\static\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maziy\Work\parsso-idma\src\main\resources\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC17E75B-AE69-45DC-B055-391ABA0271A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83123F10-EEBB-4431-8846-7C19B268D990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -435,22 +435,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="4" width="11.2265625" customWidth="1"/>
-    <col min="5" max="5" width="11.2265625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.2265625" style="14"/>
     <col min="6" max="6" width="18.6796875" customWidth="1"/>
     <col min="7" max="7" width="15.40625" customWidth="1"/>
-    <col min="8" max="8" width="11.2265625" customWidth="1"/>
     <col min="9" max="9" width="6.7265625" customWidth="1"/>
     <col min="10" max="10" width="15.7265625" customWidth="1"/>
     <col min="11" max="11" width="12.36328125" customWidth="1"/>
     <col min="12" max="12" width="45.6328125" customWidth="1"/>
-    <col min="13" max="16384" width="11.2265625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
